--- a/legislator/property/output/normal/徐耀昌_2012-04-24_財產申報表_tmp832b1.xlsx
+++ b/legislator/property/output/normal/徐耀昌_2012-04-24_財產申報表_tmp832b1.xlsx
@@ -18,9 +18,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="72">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="88">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>苗栗縣頭份鎮蟠桃段忠孝小段09200002地號</t>
+  </si>
+  <si>
+    <t>苗栗縣頭份鎮蟠桃段忠孝小段09200003地號</t>
+  </si>
+  <si>
+    <t>苗栗縣南庄鄉田尾段01690013地號</t>
+  </si>
+  <si>
+    <t>苗栗縣大湖郷大湖段00420000地號</t>
+  </si>
+  <si>
+    <t>苗栗縣南庄郷四灣段00970026地號</t>
+  </si>
+  <si>
+    <t>苗栗縣南庄鄉四灣段00970034地號</t>
+  </si>
+  <si>
+    <t>苗栗縣南庄鄉四灣段00970035地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>10000分之234</t>
+  </si>
+  <si>
+    <t>徐耀昌</t>
+  </si>
+  <si>
+    <t>蔡麗卿</t>
+  </si>
+  <si>
+    <t>73年11月06日</t>
+  </si>
+  <si>
+    <t>82年05月28日</t>
+  </si>
+  <si>
+    <t>89年02月23日</t>
+  </si>
+  <si>
+    <t>91年04月17日</t>
+  </si>
+  <si>
+    <t>共有物分割</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-24</t>
+  </si>
+  <si>
+    <t>tmp832b1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -41,97 +149,40 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>苗栗縣頭份鎮蟠桃段忠孝小段 0920-0002 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣頭份鎮蟠桃段忠孝小段 0920-0003 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣南庄鄉田尾段0169-0013 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣大湖郷大湖段0042-0000 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣南庄郷四灣段0097-0026 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣南庄鄉四灣段0097-0034 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣南庄鄉四灣段0097-0035 地號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>10000分之 234</t>
-  </si>
-  <si>
-    <t>徐耀昌</t>
-  </si>
-  <si>
-    <t>蔡麗卿</t>
-  </si>
-  <si>
-    <t>73年11月 06日</t>
-  </si>
-  <si>
-    <t>82年05月 28日</t>
-  </si>
-  <si>
-    <t>89年02月 23日</t>
-  </si>
-  <si>
-    <t>91年04月 17日</t>
-  </si>
-  <si>
-    <t>共有物分 割</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>苗栗縣頭份鎮蟠桃段忠孝小段 01681-000 建號</t>
-  </si>
-  <si>
-    <t>苗栗縣頭份鎮蟠桃段忠孝小段 01682-000 建號</t>
-  </si>
-  <si>
-    <t>苗栗縣頭份鎮蟠桃段忠孝小段 01683-000 建號</t>
-  </si>
-  <si>
-    <t>苗栗縣大湖鄉大湖段01336-000 建號</t>
-  </si>
-  <si>
-    <t>苗栗縣大湖鄉大湖段01373-000 建號</t>
-  </si>
-  <si>
-    <t>苗栗縣南庄郷四灣段00171-000</t>
-  </si>
-  <si>
-    <t>83年09月 21曰</t>
-  </si>
-  <si>
-    <t>83年09月 21日</t>
-  </si>
-  <si>
-    <t>83年09月 21 H</t>
-  </si>
-  <si>
-    <t>89年02月 23 H</t>
+    <t>苗栗縣頭份鎮蟠桃段忠孝小段01681000建號</t>
+  </si>
+  <si>
+    <t>苗栗縣頭份鎮蟠桃段忠孝小段01682000建號</t>
+  </si>
+  <si>
+    <t>苗栗縣頭份鎮蟠桃段忠孝小段01683000建號</t>
+  </si>
+  <si>
+    <t>苗栗縣大湖鄉大湖段01336000建號</t>
+  </si>
+  <si>
+    <t>苗栗縣大湖鄉大湖段01373000建號</t>
+  </si>
+  <si>
+    <t>苗栗縣南庄郷四灣段00171000</t>
+  </si>
+  <si>
+    <t>83年09月21曰</t>
+  </si>
+  <si>
+    <t>83年09月21日</t>
+  </si>
+  <si>
+    <t>83年09月21H</t>
+  </si>
+  <si>
+    <t>89年02月23H</t>
   </si>
   <si>
     <t>99年06月</t>
   </si>
   <si>
-    <t>第一次登 記</t>
+    <t>第一次登記</t>
   </si>
   <si>
     <t>第一次登</t>
@@ -146,10 +197,10 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>鈴木 HMAY1.3L JLXA43D</t>
-  </si>
-  <si>
-    <t>94年05月 20日</t>
+    <t>鈴木HMAY1.3LJLXA43D</t>
+  </si>
+  <si>
+    <t>94年05月20日</t>
   </si>
   <si>
     <t>名稱</t>
@@ -176,7 +227,7 @@
     <t>聯博全高T</t>
   </si>
   <si>
-    <t>富蘭克林坦公司 債</t>
+    <t>富蘭克林坦公司債</t>
   </si>
   <si>
     <t>富蘭克林亞洲成</t>
@@ -185,7 +236,7 @@
     <t>富蘭克林天資美</t>
   </si>
   <si>
-    <t>合作金庫商業 銀行</t>
+    <t>合作金庫商業銀行</t>
   </si>
   <si>
     <t>合作金庫商業</t>
@@ -221,16 +272,13 @@
     <t>房M貸款</t>
   </si>
   <si>
-    <t>合作金庫商業銀行</t>
-  </si>
-  <si>
     <t>臺灣土地銀行</t>
   </si>
   <si>
-    <t>99年01月 19曰</t>
-  </si>
-  <si>
-    <t>100年02月 11 U</t>
+    <t>99年01月19曰</t>
+  </si>
+  <si>
+    <t>100年02月11U</t>
   </si>
   <si>
     <t>抵押貸款</t>
@@ -592,13 +640,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -620,187 +668,355 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>160</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2">
+        <v>921</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="2">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>160</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="2">
+        <v>921</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>1091</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="2">
+        <v>921</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>3448</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2">
+        <v>921</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="2">
         <v>17</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>2723</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="2">
+        <v>921</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>2564</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="2">
+        <v>921</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>2674</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="2">
+        <v>921</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -818,25 +1034,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -844,25 +1060,25 @@
         <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2">
         <v>181</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -870,25 +1086,25 @@
         <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2">
         <v>187</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -896,25 +1112,25 @@
         <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2">
         <v>187</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -922,25 +1138,25 @@
         <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2">
         <v>74.6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -948,25 +1164,25 @@
         <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2">
         <v>69.77</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -974,22 +1190,22 @@
         <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2">
         <v>456.34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="H7" s="2">
         <v>8000000</v>
@@ -1010,22 +1226,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1033,22 +1249,22 @@
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2">
         <v>1328</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1066,25 +1282,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1092,13 +1308,13 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2">
         <v>19267.8</v>
@@ -1107,7 +1323,7 @@
         <v>10.09</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="H2" s="2">
         <v>194412</v>
@@ -1118,13 +1334,13 @@
         <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2">
         <v>3389.55</v>
@@ -1133,7 +1349,7 @@
         <v>4.47</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="H3" s="2">
         <v>446129</v>
@@ -1144,13 +1360,13 @@
         <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E4" s="2">
         <v>764.526</v>
@@ -1159,7 +1375,7 @@
         <v>6.84</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="H4" s="2">
         <v>153978</v>
@@ -1170,13 +1386,13 @@
         <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E5" s="2">
         <v>178.453</v>
@@ -1185,7 +1401,7 @@
         <v>31.24</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="H5" s="2">
         <v>164152</v>
@@ -1196,13 +1412,13 @@
         <v>77</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E6" s="2">
         <v>545.904</v>
@@ -1211,7 +1427,7 @@
         <v>9.52</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="H6" s="2">
         <v>153025</v>
@@ -1232,22 +1448,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1255,22 +1471,22 @@
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2">
         <v>15279280</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1278,22 +1494,22 @@
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2">
         <v>12000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/徐耀昌_2012-04-24_財產申報表_tmp832b1.xlsx
+++ b/legislator/property/output/normal/徐耀昌_2012-04-24_財產申報表_tmp832b1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="67">
   <si>
     <t>name</t>
   </si>
@@ -62,7 +62,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>苗栗縣頭份鎮蟠桃段忠孝小段09200002地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>苗栗縣頭份鎮蟠桃段忠孝小段09200003地號</t>
@@ -128,30 +131,15 @@
     <t>tmp832b1</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>苗栗縣頭份鎮蟠桃段忠孝小段01681000建號</t>
   </si>
   <si>
+    <t>83年09月21曰</t>
+  </si>
+  <si>
+    <t>第一次登記</t>
+  </si>
+  <si>
     <t>苗栗縣頭份鎮蟠桃段忠孝小段01682000建號</t>
   </si>
   <si>
@@ -167,9 +155,6 @@
     <t>苗栗縣南庄郷四灣段00171000</t>
   </si>
   <si>
-    <t>83年09月21曰</t>
-  </si>
-  <si>
     <t>83年09月21日</t>
   </si>
   <si>
@@ -182,48 +167,24 @@
     <t>99年06月</t>
   </si>
   <si>
-    <t>第一次登記</t>
-  </si>
-  <si>
     <t>第一次登</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>鈴木HMAY1.3LJLXA43D</t>
   </si>
   <si>
     <t>94年05月20日</t>
   </si>
   <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>受託投資機構</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>票面價額(單位淨值）</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>合庫新興亞</t>
   </si>
   <si>
+    <t>合作金庫商業銀行</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>聯博全高T</t>
   </si>
   <si>
@@ -236,52 +197,28 @@
     <t>富蘭克林天資美</t>
   </si>
   <si>
-    <t>合作金庫商業銀行</t>
-  </si>
-  <si>
     <t>合作金庫商業</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>美元</t>
   </si>
   <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>土地房屋貸款</t>
   </si>
   <si>
+    <t>99年01月19曰</t>
+  </si>
+  <si>
+    <t>抵押貸款</t>
+  </si>
+  <si>
     <t>房M貸款</t>
   </si>
   <si>
     <t>臺灣土地銀行</t>
   </si>
   <si>
-    <t>99年01月19曰</t>
-  </si>
-  <si>
     <t>100年02月11U</t>
-  </si>
-  <si>
-    <t>抵押貸款</t>
   </si>
 </sst>
 </file>
@@ -640,13 +577,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -689,157 +626,181 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
         <v>160</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" s="2">
         <v>921</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="2">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1091</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2">
-        <v>160</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M3" s="2">
         <v>921</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="2">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3448</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1091</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="L4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M4" s="2">
         <v>921</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0234</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>80.6832</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>3448</v>
+        <v>2723</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>22</v>
@@ -848,175 +809,146 @@
         <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5" s="2">
         <v>921</v>
       </c>
       <c r="N5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="2">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2564</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1">
-        <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2723</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="L6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M6" s="2">
         <v>921</v>
       </c>
       <c r="N6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="2">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2674</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2564</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="L7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M7" s="2">
         <v>921</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1">
         <v>20</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
         <v>2674</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="2">
-        <v>921</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O8" s="2">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1026,7 +958,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1034,180 +966,154 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="C1" s="1">
+        <v>181</v>
+      </c>
       <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2">
         <v>187</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2">
-        <v>187</v>
+        <v>74.6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2">
-        <v>74.6</v>
+        <v>69.77</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2">
-        <v>69.77</v>
+        <v>456.34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>30</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="2">
-        <v>456.34</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="2">
+        <v>49</v>
+      </c>
+      <c r="H6" s="2">
         <v>8000000</v>
       </c>
     </row>
@@ -1217,6 +1123,179 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1328</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1">
+        <v>19267.8</v>
+      </c>
+      <c r="F1" s="1">
+        <v>10.09</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="1">
+        <v>194412</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>72</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3389.55</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4.47</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="2">
+        <v>446129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>73</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="2">
+        <v>764.526</v>
+      </c>
+      <c r="F3" s="2">
+        <v>6.84</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="2">
+        <v>153978</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>74</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="2">
+        <v>178.453</v>
+      </c>
+      <c r="F4" s="2">
+        <v>31.24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="2">
+        <v>164152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>77</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="2">
+        <v>545.904</v>
+      </c>
+      <c r="F5" s="2">
+        <v>9.52</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="2">
+        <v>153025</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1226,290 +1305,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
+      </c>
+      <c r="E1" s="1">
+        <v>15279280</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1328</v>
+        <v>64</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
+      </c>
+      <c r="E2" s="2">
+        <v>12000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>71</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="2">
-        <v>19267.8</v>
-      </c>
-      <c r="F2" s="2">
-        <v>10.09</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="2">
-        <v>194412</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>72</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="2">
-        <v>3389.55</v>
-      </c>
-      <c r="F3" s="2">
-        <v>4.47</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H3" s="2">
-        <v>446129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>73</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="2">
-        <v>764.526</v>
-      </c>
-      <c r="F4" s="2">
-        <v>6.84</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="2">
-        <v>153978</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>74</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="2">
-        <v>178.453</v>
-      </c>
-      <c r="F5" s="2">
-        <v>31.24</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="2">
-        <v>164152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>77</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="2">
-        <v>545.904</v>
-      </c>
-      <c r="F6" s="2">
-        <v>9.52</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="2">
-        <v>153025</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>104</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="2">
-        <v>15279280</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>105</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="2">
-        <v>12000000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/徐耀昌_2012-04-24_財產申報表_tmp832b1.xlsx
+++ b/legislator/property/output/normal/徐耀昌_2012-04-24_財產申報表_tmp832b1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="68">
   <si>
     <t>name</t>
   </si>
@@ -68,6 +68,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>苗栗縣頭份鎮蟠桃段忠孝小段09200002地號</t>
+  </si>
+  <si>
     <t>苗栗縣頭份鎮蟠桃段忠孝小段09200003地號</t>
   </si>
   <si>
@@ -134,37 +137,37 @@
     <t>苗栗縣頭份鎮蟠桃段忠孝小段01681000建號</t>
   </si>
   <si>
+    <t>苗栗縣頭份鎮蟠桃段忠孝小段01682000建號</t>
+  </si>
+  <si>
+    <t>苗栗縣頭份鎮蟠桃段忠孝小段01683000建號</t>
+  </si>
+  <si>
+    <t>苗栗縣大湖鄉大湖段01336000建號</t>
+  </si>
+  <si>
+    <t>苗栗縣大湖鄉大湖段01373000建號</t>
+  </si>
+  <si>
+    <t>苗栗縣南庄郷四灣段00171000</t>
+  </si>
+  <si>
     <t>83年09月21曰</t>
   </si>
   <si>
+    <t>83年09月21日</t>
+  </si>
+  <si>
+    <t>83年09月21H</t>
+  </si>
+  <si>
+    <t>89年02月23H</t>
+  </si>
+  <si>
+    <t>99年06月</t>
+  </si>
+  <si>
     <t>第一次登記</t>
-  </si>
-  <si>
-    <t>苗栗縣頭份鎮蟠桃段忠孝小段01682000建號</t>
-  </si>
-  <si>
-    <t>苗栗縣頭份鎮蟠桃段忠孝小段01683000建號</t>
-  </si>
-  <si>
-    <t>苗栗縣大湖鄉大湖段01336000建號</t>
-  </si>
-  <si>
-    <t>苗栗縣大湖鄉大湖段01373000建號</t>
-  </si>
-  <si>
-    <t>苗栗縣南庄郷四灣段00171000</t>
-  </si>
-  <si>
-    <t>83年09月21日</t>
-  </si>
-  <si>
-    <t>83年09月21H</t>
-  </si>
-  <si>
-    <t>89年02月23H</t>
-  </si>
-  <si>
-    <t>99年06月</t>
   </si>
   <si>
     <t>第一次登</t>
@@ -577,7 +580,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -635,7 +638,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -644,40 +647,40 @@
         <v>160</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" s="2">
         <v>921</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
         <v>1</v>
@@ -688,16 +691,16 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>1091</v>
+        <v>160</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
@@ -709,245 +712,298 @@
         <v>31</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M3" s="2">
         <v>921</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
         <v>1</v>
       </c>
       <c r="Q3" s="2">
-        <v>1091</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>3448</v>
+        <v>1091</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M4" s="2">
         <v>921</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
-        <v>0.0234</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="2">
-        <v>80.6832</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>2723</v>
+        <v>3448</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M5" s="2">
         <v>921</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
-        <v>1</v>
+        <v>0.0234</v>
       </c>
       <c r="Q5" s="2">
-        <v>2723</v>
+        <v>80.6832</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>2564</v>
+        <v>2723</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M6" s="2">
         <v>921</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
         <v>1</v>
       </c>
       <c r="Q6" s="2">
-        <v>2564</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>2674</v>
+        <v>2564</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M7" s="2">
         <v>921</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O7" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P7" s="2">
         <v>1</v>
       </c>
       <c r="Q7" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2674</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="2">
+        <v>921</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
         <v>2674</v>
       </c>
     </row>
@@ -957,6 +1013,443 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2">
+        <v>181</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>921</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="2">
+        <v>25</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="2">
+        <v>187</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2">
+        <v>921</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="2">
+        <v>26</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="2">
+        <v>187</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2">
+        <v>921</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="2">
+        <v>27</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="2">
+        <v>74.6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="2">
+        <v>921</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="2">
+        <v>28</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>74.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="2">
+        <v>69.77</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2">
+        <v>921</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="2">
+        <v>29</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>69.77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="2">
+        <v>456.34</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="2">
+        <v>8000000</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="2">
+        <v>921</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" s="2">
+        <v>30</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>456.34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1328</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1328</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -966,327 +1459,154 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1">
-        <v>181</v>
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>54</v>
+      </c>
+      <c r="E1" s="1">
+        <v>19267.8</v>
+      </c>
+      <c r="F1" s="1">
+        <v>10.09</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
+      </c>
+      <c r="H1" s="1">
+        <v>194412</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
+        <v>71</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="2">
-        <v>187</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
+      </c>
+      <c r="E2" s="2">
+        <v>19267.8</v>
+      </c>
+      <c r="F2" s="2">
+        <v>10.09</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
+      </c>
+      <c r="H2" s="2">
+        <v>194412</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="2">
-        <v>187</v>
+        <v>56</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3389.55</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4.47</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>32</v>
+        <v>61</v>
+      </c>
+      <c r="H3" s="2">
+        <v>446129</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="2">
-        <v>74.6</v>
+        <v>57</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>54</v>
+      </c>
+      <c r="E4" s="2">
+        <v>764.526</v>
+      </c>
+      <c r="F4" s="2">
+        <v>6.84</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>32</v>
+        <v>61</v>
+      </c>
+      <c r="H4" s="2">
+        <v>153978</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="2">
-        <v>69.77</v>
+        <v>58</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
+      </c>
+      <c r="E5" s="2">
+        <v>178.453</v>
+      </c>
+      <c r="F5" s="2">
+        <v>31.24</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>32</v>
+        <v>61</v>
+      </c>
+      <c r="H5" s="2">
+        <v>164152</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="2">
-        <v>456.34</v>
+        <v>59</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
+      </c>
+      <c r="E6" s="2">
+        <v>545.904</v>
+      </c>
+      <c r="F6" s="2">
+        <v>9.52</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="H6" s="2">
-        <v>8000000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1328</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="1">
-        <v>19267.8</v>
-      </c>
-      <c r="F1" s="1">
-        <v>10.09</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="1">
-        <v>194412</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>72</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="2">
-        <v>3389.55</v>
-      </c>
-      <c r="F2" s="2">
-        <v>4.47</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="2">
-        <v>446129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>73</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="2">
-        <v>764.526</v>
-      </c>
-      <c r="F3" s="2">
-        <v>6.84</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="2">
-        <v>153978</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>74</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="2">
-        <v>178.453</v>
-      </c>
-      <c r="F4" s="2">
-        <v>31.24</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="2">
-        <v>164152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>77</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="2">
-        <v>545.904</v>
-      </c>
-      <c r="F5" s="2">
-        <v>9.52</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" s="2">
         <v>153025</v>
       </c>
     </row>
@@ -1297,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1305,45 +1625,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1">
         <v>15279280</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>104</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="2">
+        <v>15279280</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>105</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="2">
+        <v>12000000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="2">
-        <v>12000000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/徐耀昌_2012-04-24_財產申報表_tmp832b1.xlsx
+++ b/legislator/property/output/normal/徐耀昌_2012-04-24_財產申報表_tmp832b1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="69">
   <si>
     <t>name</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>第一次登</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>鈴木HMAY1.3LJLXA43D</t>
@@ -1395,38 +1398,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1">
-        <v>1328</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2">
         <v>1328</v>
@@ -1435,13 +1459,34 @@
         <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>33</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2">
+        <v>921</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="2">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1459,13 +1504,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1">
         <v>19267.8</v>
@@ -1474,7 +1519,7 @@
         <v>10.09</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1">
         <v>194412</v>
@@ -1485,13 +1530,13 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2">
         <v>19267.8</v>
@@ -1500,7 +1545,7 @@
         <v>10.09</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2">
         <v>194412</v>
@@ -1511,13 +1556,13 @@
         <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2">
         <v>3389.55</v>
@@ -1526,7 +1571,7 @@
         <v>4.47</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H3" s="2">
         <v>446129</v>
@@ -1537,13 +1582,13 @@
         <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2">
         <v>764.526</v>
@@ -1552,7 +1597,7 @@
         <v>6.84</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H4" s="2">
         <v>153978</v>
@@ -1563,13 +1608,13 @@
         <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2">
         <v>178.453</v>
@@ -1578,7 +1623,7 @@
         <v>31.24</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H5" s="2">
         <v>164152</v>
@@ -1589,13 +1634,13 @@
         <v>77</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2">
         <v>545.904</v>
@@ -1604,7 +1649,7 @@
         <v>9.52</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H6" s="2">
         <v>153025</v>
@@ -1625,22 +1670,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1">
         <v>15279280</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1648,22 +1693,22 @@
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2">
         <v>15279280</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1671,22 +1716,22 @@
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E3" s="2">
         <v>12000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
